--- a/classfiers/nano/svm/nano-svm-poly-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8255868544600939</v>
+        <v>0.7171920411357031</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8046948356807512</v>
+        <v>0.8904538341158059</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9687793427230048</v>
+        <v>0.8948356807511737</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.92018779342723</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8344452680998271</v>
+        <v>0.6410798122065727</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8867012601927353</v>
+        <v>0.812749832327297</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nano-svm-poly-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7171920411357031</v>
+        <v>0.6459576776994032</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8904538341158059</v>
+        <v>0.8711340206185567</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8948356807511737</v>
+        <v>0.8880297823596793</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.92018779342723</v>
+        <v>0.9460049086446687</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6410798122065727</v>
+        <v>0.7716116716662121</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.812749832327297</v>
+        <v>0.824547612197704</v>
       </c>
     </row>
   </sheetData>
